--- a/biology/Médecine/1124_en_santé_et_médecine/1124_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1124_en_santé_et_médecine/1124_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1124_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1124_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1124 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1124_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1124_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alors qu'« une famine épouvantable sévit en Flandres […], les plus pauvres [meurent] de faim à côté de greniers pleins » parce que les mesures prises par Charles le Bon sont sans effet sur le prix du pain[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alors qu'« une famine épouvantable sévit en Flandres […], les plus pauvres [meurent] de faim à côté de greniers pleins » parce que les mesures prises par Charles le Bon sont sans effet sur le prix du pain.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1124_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1124_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,17 +555,19 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les prémontrés fondent à Laon l'hôpital Saint-Martin, « pour y recevoir et y soigner les voyageurs et les pèlerins[2] ».
-La léproserie que les bourgeois de Liège ont fondée hors les murs en 1117 est confiée par le prince évêque Albéron Ier aux chanoines et chanoinesses prémontrés de l'abbaye du Mont-Cornillon[3].
-« Essai d'ambulance projeté [par le roi Louis VI] lors de la grande invasion dont les Allemands menacent la France[4]. »
-Fondation probable de St. Bartholomew's Hospital (en), entre Chatham et Rochester, dans le Kent, en Angleterre, par Hughes de Trottiscliffe, abbé de Saint-Augustin de Cantorbéry[5].
-Entre 1100 et 1124 : fondation par Gaston IV, vicomte de Béarn, d'un hôpital pour pèlerins, dit du Faget d'Aubertin, sur la commune actuelle de Lacommande[6].
-Avant 1124 : fondation de la léproserie Saint-Lazare de Paris[7].
-Avant 1124[8] (1119[9] ?) : Guillaume IX, duc de Guyenne, fonde l'hôpital Saint-Jacques de Bordeaux, établissement d'accueil mixte, et « toujours ouvert aux pèlerins et malades à la fin des années 1180[9] ».
-1124 ou 1125 : fondation par Roger Fitz Herbert de la léproserie de la Madeleine d'Orbec, en Normandie[10].
-Entre 1124 et 1151 : sous Algare, évêque de Coutances, « fondation à Bolleville, en Normandie, dans l'ancien canton de La Haye-du-Puits, par Richard de La Haye, […] d'un prieuré de l'abbaye de Lessay à usage de léproserie, placé sous le vocable de Sainte-Marie Madeleine […], établissement élitiste réservé surtout à des membres de la noblesse[11] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les prémontrés fondent à Laon l'hôpital Saint-Martin, « pour y recevoir et y soigner les voyageurs et les pèlerins ».
+La léproserie que les bourgeois de Liège ont fondée hors les murs en 1117 est confiée par le prince évêque Albéron Ier aux chanoines et chanoinesses prémontrés de l'abbaye du Mont-Cornillon.
+« Essai d'ambulance projeté [par le roi Louis VI] lors de la grande invasion dont les Allemands menacent la France. »
+Fondation probable de St. Bartholomew's Hospital (en), entre Chatham et Rochester, dans le Kent, en Angleterre, par Hughes de Trottiscliffe, abbé de Saint-Augustin de Cantorbéry.
+Entre 1100 et 1124 : fondation par Gaston IV, vicomte de Béarn, d'un hôpital pour pèlerins, dit du Faget d'Aubertin, sur la commune actuelle de Lacommande.
+Avant 1124 : fondation de la léproserie Saint-Lazare de Paris.
+Avant 1124 (1119 ?) : Guillaume IX, duc de Guyenne, fonde l'hôpital Saint-Jacques de Bordeaux, établissement d'accueil mixte, et « toujours ouvert aux pèlerins et malades à la fin des années 1180 ».
+1124 ou 1125 : fondation par Roger Fitz Herbert de la léproserie de la Madeleine d'Orbec, en Normandie.
+Entre 1124 et 1151 : sous Algare, évêque de Coutances, « fondation à Bolleville, en Normandie, dans l'ancien canton de La Haye-du-Puits, par Richard de La Haye, […] d'un prieuré de l'abbaye de Lessay à usage de léproserie, placé sous le vocable de Sainte-Marie Madeleine […], établissement élitiste réservé surtout à des membres de la noblesse ».</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1124_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1124_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1124-1151 : fl. Jean, médecin, donateur au prieuré Saint-Jacques de Grez-Neuville en Anjou[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1124-1151 : fl. Jean, médecin, donateur au prieuré Saint-Jacques de Grez-Neuville en Anjou.
 </t>
         </is>
       </c>
